--- a/src/main/resources/com/relative/QuskyOro/Matrices/Precios.xlsx
+++ b/src/main/resources/com/relative/QuskyOro/Matrices/Precios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\PROYECTOS\QUSKI\BRE\MATRICES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\extre\Documents\proyectos\proyectos drools\QuskyOro\src\main\resources\com\relative\QuskyOro\Matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96C531C-96BF-46BF-A39C-8F59D5E5FE46}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85524D59-BE47-4631-ACE8-63842024DEC5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <t>RuleTable Precio</t>
   </si>
   <si>
-    <t>com.relative.brecreditosnuevos.objetosnegocio.Garantia</t>
-  </si>
-  <si>
     <t>VALORES PARAMETRIZADOS</t>
   </si>
   <si>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t>garantia.setValorAvaluo(Double.valueOf($param));</t>
+  </si>
+  <si>
+    <t>com.relative.QuskyOro.ObjetosNegocio.Garantia</t>
   </si>
 </sst>
 </file>
@@ -576,17 +576,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="35.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -594,23 +594,23 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>17</v>
@@ -618,7 +618,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
         <v>4</v>
@@ -630,7 +630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="2" t="s">
@@ -638,22 +638,22 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>5</v>
@@ -662,12 +662,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>7</v>
@@ -676,12 +676,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>8</v>
@@ -690,26 +690,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="13">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>9</v>
@@ -718,12 +718,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>10</v>
@@ -732,12 +732,12 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>11</v>
@@ -746,26 +746,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="13">
         <v>17.5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>12</v>
@@ -774,12 +774,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>13</v>
@@ -788,12 +788,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>14</v>
@@ -802,7 +802,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/com/relative/QuskyOro/Matrices/Precios.xlsx
+++ b/src/main/resources/com/relative/QuskyOro/Matrices/Precios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\extre\Documents\proyectos\proyectos drools\QuskyOro\src\main\resources\com\relative\QuskyOro\Matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85524D59-BE47-4631-ACE8-63842024DEC5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9696B22-6006-4151-932D-8DB29448D9A5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,7 +102,7 @@
     <t>garantia.setValorAvaluo(Double.valueOf($param));</t>
   </si>
   <si>
-    <t>com.relative.QuskyOro.ObjetosNegocio.Garantia</t>
+    <t>com.relative.QuskiOro.ObjetosNegocio.Garantia</t>
   </si>
 </sst>
 </file>
@@ -577,7 +577,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
